--- a/hsd-servers/hsd-app-starter/hsd-web-boss-server/src/main/resources/static/doc/staff.xlsx
+++ b/hsd-servers/hsd-app-starter/hsd-web-boss-server/src/main/resources/static/doc/staff.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>账号</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -58,6 +58,14 @@
   </si>
   <si>
     <t>性别</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>x001</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1023,70 +1031,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="27.75" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="27.75" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>15021500001</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9">
       <formula1>"男,女,保密"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/hsd-servers/hsd-app-starter/hsd-web-boss-server/src/main/resources/static/doc/staff.xlsx
+++ b/hsd-servers/hsd-app-starter/hsd-web-boss-server/src/main/resources/static/doc/staff.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>账号</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -41,31 +41,64 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>男</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>职级</t>
+  </si>
+  <si>
+    <t>岗位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+  </si>
+  <si>
+    <t>工号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>a501</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>x501</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>a501</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试A501</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t501@heshidai.com</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品技术中心</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试角色</t>
+  </si>
+  <si>
+    <t>普通员工</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>a001</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>测试A001</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t001@heshidai.com</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>工号</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>x001</t>
+    <t>上级领导(账号)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -73,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +270,24 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -671,7 +722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,6 +730,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1031,22 +1094,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="27.75" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="24.125" customWidth="1"/>
+    <col min="7" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1060,7 +1123,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1068,28 +1131,52 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="15">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2">
-        <v>15021500001</v>
+        <v>15021500501</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
